--- a/Financial/SMU_FinancialReport.xlsx
+++ b/Financial/SMU_FinancialReport.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jie Ying\Desktop\Y2S2\SMA\Group Project\Report (Week 12,13)\Data\II - Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21377E-EEAA-46A9-A8F1-CF1AB9E64696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09472B46-0BBD-420B-A62D-EA38312A8734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="Quarter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
   <si>
     <t>JUL</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>Net Loss Before Adjustments</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -187,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -357,12 +364,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,6 +451,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -425,10 +491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC5629-EF17-4750-AB17-EAF6EF4D90D7}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,7 +2018,7 @@
         <v>12631.183499999999</v>
       </c>
       <c r="D47" s="18">
-        <f t="shared" ref="D47:H47" si="9">D5+D10+D15+D20+D25+D30+D35+D40+D45</f>
+        <f t="shared" ref="D47:G47" si="9">D5+D10+D15+D20+D25+D30+D35+D40+D45</f>
         <v>14989.502</v>
       </c>
       <c r="E47" s="18">
@@ -2060,4 +2122,588 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929F6B4-C83D-45C1-8C2F-88E3C5D663D6}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="44">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D2" s="13">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1.73</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4.6599999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>6.56</v>
+      </c>
+      <c r="D4" s="13">
+        <v>21.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45">
+        <v>24.509999999999998</v>
+      </c>
+      <c r="D5" s="15">
+        <v>80.300000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="39"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="44">
+        <v>11196.5</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7379.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="44">
+        <v>592.16</v>
+      </c>
+      <c r="D8" s="13">
+        <v>463.90999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44">
+        <v>2239.3000000000002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1475.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="45">
+        <v>8365.0400000000009</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5439.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="44">
+        <v>1469.7</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1890.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="44">
+        <v>76.05</v>
+      </c>
+      <c r="D13" s="13">
+        <v>116.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="44">
+        <v>293.94</v>
+      </c>
+      <c r="D14" s="13">
+        <v>378.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45">
+        <v>1099.71</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1395.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="39"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="44">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="D17" s="13">
+        <v>381.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="44">
+        <v>13.48</v>
+      </c>
+      <c r="D18" s="13">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="38"/>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="44">
+        <v>60.120000000000005</v>
+      </c>
+      <c r="D19" s="13">
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="38"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="45">
+        <v>227</v>
+      </c>
+      <c r="D20" s="15">
+        <v>295.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="44">
+        <v>9631.5999999999985</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7164.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="38"/>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="44">
+        <v>404.16</v>
+      </c>
+      <c r="D23" s="13">
+        <v>279.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="38"/>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="44">
+        <v>4087.1635000000006</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2979.7075000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="38"/>
+      <c r="B25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="45">
+        <v>5140.2764999999999</v>
+      </c>
+      <c r="D25" s="15">
+        <v>3904.5224999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="44">
+        <v>782</v>
+      </c>
+      <c r="D27" s="13">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="38"/>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="44">
+        <v>23.180000000000003</v>
+      </c>
+      <c r="D28" s="13">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="38"/>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="44">
+        <v>156.4</v>
+      </c>
+      <c r="D29" s="13">
+        <v>113.20000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="38"/>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="45">
+        <v>602.41999999999996</v>
+      </c>
+      <c r="D30" s="15">
+        <v>438.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="44">
+        <v>7236</v>
+      </c>
+      <c r="D32" s="13">
+        <v>4679.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="38"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="44">
+        <v>435.64</v>
+      </c>
+      <c r="D33" s="13">
+        <v>201.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="38"/>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="44">
+        <v>1447.2</v>
+      </c>
+      <c r="D34" s="13">
+        <v>935.86000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="38"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="45">
+        <v>5353.16</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3541.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="39"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="44">
+        <v>553.80000000000007</v>
+      </c>
+      <c r="D37" s="13">
+        <v>4384.5999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="38"/>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="44">
+        <v>24.939999999999998</v>
+      </c>
+      <c r="D38" s="13">
+        <v>185.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="38"/>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="44">
+        <v>110.76</v>
+      </c>
+      <c r="D39" s="13">
+        <v>876.92000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="38"/>
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="45">
+        <v>418.1</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3322.5099999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="39"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="44">
+        <v>39376.9</v>
+      </c>
+      <c r="D42" s="13">
+        <v>27589.399999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="38"/>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="44">
+        <v>1491.1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1023.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="38"/>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="44">
+        <v>14455.324500000002</v>
+      </c>
+      <c r="D44" s="13">
+        <v>9858.4364999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="45">
+        <v>23430.4755</v>
+      </c>
+      <c r="D45" s="15">
+        <v>16707.223499999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="39"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="18">
+        <v>44660.692000000003</v>
+      </c>
+      <c r="D47" s="40">
+        <v>35126.286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
+      <c r="B48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="18">
+        <v>72100</v>
+      </c>
+      <c r="D48" s="40">
+        <v>72500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="47">
+        <v>-27439.308000000001</v>
+      </c>
+      <c r="D49" s="43">
+        <v>-37373.714</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Financial/SMU_FinancialReport.xlsx
+++ b/Financial/SMU_FinancialReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jie Ying\Desktop\Y2S2\SMA\Group Project\Report (Week 12,13)\Data\II - Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09472B46-0BBD-420B-A62D-EA38312A8734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDA51A9-B4CC-4B1F-A6BF-657DD710F884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
@@ -442,6 +442,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,30 +466,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC5629-EF17-4750-AB17-EAF6EF4D90D7}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -989,7 +989,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="7" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="7" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2043,65 +2043,65 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="20">
-        <v>24100</v>
+        <v>19600</v>
       </c>
       <c r="D48" s="21">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="E48" s="21">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="F48" s="21">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="G48" s="21">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="H48" s="22">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="I48" s="22">
         <f>SUM(C48:H48)</f>
-        <v>144600</v>
+        <v>117600</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="32"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="23">
         <f>C47-C48</f>
-        <v>-11468.816500000001</v>
+        <v>-6968.8165000000008</v>
       </c>
       <c r="D49" s="23">
         <f t="shared" ref="D49:H49" si="10">D47-D48</f>
-        <v>-9010.4979999999996</v>
+        <v>-4510.4979999999996</v>
       </c>
       <c r="E49" s="23">
         <f t="shared" si="10"/>
-        <v>-6959.9935000000005</v>
+        <v>-2459.9935000000005</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="10"/>
-        <v>-9842.3660000000018</v>
+        <v>-5342.3660000000018</v>
       </c>
       <c r="G49" s="23">
         <f t="shared" si="10"/>
-        <v>-10166.329500000003</v>
+        <v>-5666.3295000000035</v>
       </c>
       <c r="H49" s="24">
         <f t="shared" si="10"/>
-        <v>-17365.018499999998</v>
+        <v>-12865.0185</v>
       </c>
       <c r="I49" s="30">
         <f>I47-I48</f>
-        <v>-64813.022000000012</v>
+        <v>-37813.022000000012</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929F6B4-C83D-45C1-8C2F-88E3C5D663D6}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2140,23 +2140,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="38">
         <v>32.799999999999997</v>
       </c>
       <c r="D2" s="13">
@@ -2164,11 +2164,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="38">
         <v>1.73</v>
       </c>
       <c r="D3" s="13">
@@ -2176,11 +2176,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="38">
         <v>6.56</v>
       </c>
       <c r="D4" s="13">
@@ -2188,11 +2188,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>24.509999999999998</v>
       </c>
       <c r="D5" s="15">
@@ -2200,19 +2200,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="38">
         <v>11196.5</v>
       </c>
       <c r="D7" s="13">
@@ -2220,11 +2220,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="38">
         <v>592.16</v>
       </c>
       <c r="D8" s="13">
@@ -2232,11 +2232,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="38">
         <v>2239.3000000000002</v>
       </c>
       <c r="D9" s="13">
@@ -2244,11 +2244,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>8365.0400000000009</v>
       </c>
       <c r="D10" s="15">
@@ -2256,19 +2256,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="38">
         <v>1469.7</v>
       </c>
       <c r="D12" s="13">
@@ -2276,11 +2276,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="38">
         <v>76.05</v>
       </c>
       <c r="D13" s="13">
@@ -2288,11 +2288,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="38">
         <v>293.94</v>
       </c>
       <c r="D14" s="13">
@@ -2300,11 +2300,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="39">
         <v>1099.71</v>
       </c>
       <c r="D15" s="15">
@@ -2312,19 +2312,19 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="38">
         <v>300.60000000000002</v>
       </c>
       <c r="D17" s="13">
@@ -2332,11 +2332,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="38">
         <v>13.48</v>
       </c>
       <c r="D18" s="13">
@@ -2344,11 +2344,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="38">
         <v>60.120000000000005</v>
       </c>
       <c r="D19" s="13">
@@ -2356,11 +2356,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="39">
         <v>227</v>
       </c>
       <c r="D20" s="15">
@@ -2368,19 +2368,19 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="38">
         <v>9631.5999999999985</v>
       </c>
       <c r="D22" s="13">
@@ -2388,11 +2388,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="38">
         <v>404.16</v>
       </c>
       <c r="D23" s="13">
@@ -2400,11 +2400,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="38">
         <v>4087.1635000000006</v>
       </c>
       <c r="D24" s="13">
@@ -2412,11 +2412,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="39">
         <v>5140.2764999999999</v>
       </c>
       <c r="D25" s="15">
@@ -2424,19 +2424,19 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="46"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="38">
         <v>782</v>
       </c>
       <c r="D27" s="13">
@@ -2444,11 +2444,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="38">
         <v>23.180000000000003</v>
       </c>
       <c r="D28" s="13">
@@ -2456,11 +2456,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="38">
         <v>156.4</v>
       </c>
       <c r="D29" s="13">
@@ -2468,11 +2468,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="39">
         <v>602.41999999999996</v>
       </c>
       <c r="D30" s="15">
@@ -2480,19 +2480,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="46"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="38">
         <v>7236</v>
       </c>
       <c r="D32" s="13">
@@ -2500,11 +2500,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="38">
         <v>435.64</v>
       </c>
       <c r="D33" s="13">
@@ -2512,11 +2512,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="38">
         <v>1447.2</v>
       </c>
       <c r="D34" s="13">
@@ -2524,11 +2524,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="39">
         <v>5353.16</v>
       </c>
       <c r="D35" s="15">
@@ -2536,19 +2536,19 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="38">
         <v>553.80000000000007</v>
       </c>
       <c r="D37" s="13">
@@ -2556,11 +2556,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="38">
         <v>24.939999999999998</v>
       </c>
       <c r="D38" s="13">
@@ -2568,11 +2568,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="38">
         <v>110.76</v>
       </c>
       <c r="D39" s="13">
@@ -2580,11 +2580,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="39">
         <v>418.1</v>
       </c>
       <c r="D40" s="15">
@@ -2592,19 +2592,19 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="46"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="38">
         <v>39376.9</v>
       </c>
       <c r="D42" s="13">
@@ -2612,11 +2612,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="38">
         <v>1491.1</v>
       </c>
       <c r="D43" s="13">
@@ -2624,11 +2624,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="38">
         <v>14455.324500000002</v>
       </c>
       <c r="D44" s="13">
@@ -2636,11 +2636,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="39">
         <v>23430.4755</v>
       </c>
       <c r="D45" s="15">
@@ -2648,13 +2648,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="46"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2663,32 +2663,32 @@
       <c r="C47" s="18">
         <v>44660.692000000003</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="35">
         <v>35126.286</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="18">
-        <v>72100</v>
-      </c>
-      <c r="D48" s="40">
-        <v>72500</v>
+        <v>58600</v>
+      </c>
+      <c r="D48" s="35">
+        <v>59000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="47">
-        <v>-27439.308000000001</v>
-      </c>
-      <c r="D49" s="43">
-        <v>-37373.714</v>
+      <c r="C49" s="41">
+        <v>-13939.31</v>
+      </c>
+      <c r="D49" s="37">
+        <v>-23873.71</v>
       </c>
     </row>
   </sheetData>

--- a/Financial/SMU_FinancialReport.xlsx
+++ b/Financial/SMU_FinancialReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jie Ying\Desktop\Y2S2\SMA\Group Project\Report (Week 12,13)\Data\II - Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21377E-EEAA-46A9-A8F1-CF1AB9E64696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916C64C-7A84-422E-BF5F-7FD240998FEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
+    <workbookView minimized="1" xWindow="9260" yWindow="4090" windowWidth="16920" windowHeight="10540" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -112,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -360,7 +358,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -377,29 +375,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,10 +423,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC5629-EF17-4750-AB17-EAF6EF4D90D7}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,7 +1950,7 @@
         <v>12631.183499999999</v>
       </c>
       <c r="D47" s="18">
-        <f t="shared" ref="D47:H47" si="9">D5+D10+D15+D20+D25+D30+D35+D40+D45</f>
+        <f t="shared" ref="D47:G47" si="9">D5+D10+D15+D20+D25+D30+D35+D40+D45</f>
         <v>14989.502</v>
       </c>
       <c r="E47" s="18">
